--- a/trunk/doc/数值设计/模块层/技能模版列表.xlsx
+++ b/trunk/doc/数值设计/模块层/技能模版列表.xlsx
@@ -1,28 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+  <si>
+    <t>火计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙炎滔天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水淹三军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火雨急袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛烈冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑马突袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆地裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵，盾矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速装填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能额外攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+周围4格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带兵种相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格</t>
+  </si>
+  <si>
+    <t>自身周围8格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合连续进行两次攻击判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+同面向后面一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +181,725 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2371642</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>590496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="333375"/>
+          <a:ext cx="666667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2504964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>723817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="942975"/>
+          <a:ext cx="885714" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2381167</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>600021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="1809750"/>
+          <a:ext cx="666667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2543064</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>723817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="2381250"/>
+          <a:ext cx="885714" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3314614</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="219075"/>
+          <a:ext cx="685714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3409864</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>600014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="1752600"/>
+          <a:ext cx="685714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2314502</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>657164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="3257550"/>
+          <a:ext cx="580952" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2457367</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>609546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="4191000"/>
+          <a:ext cx="666667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3486064</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>609539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="4133850"/>
+          <a:ext cx="685714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2447852</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>590489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="4819650"/>
+          <a:ext cx="580952" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2685939</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>685717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="5648325"/>
+          <a:ext cx="885714" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2524052</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>561914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="6391275"/>
+          <a:ext cx="580952" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2495467</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>580971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="7258050"/>
+          <a:ext cx="666667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2838450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3524164</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>580964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="7200900"/>
+          <a:ext cx="685714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2514517</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>571446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="8020050"/>
+          <a:ext cx="666667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3543214</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>571439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="7962900"/>
+          <a:ext cx="685714" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2762143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>780957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="8591550"/>
+          <a:ext cx="857143" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2657364</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>714292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="9458325"/>
+          <a:ext cx="885714" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +1184,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>200</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/doc/数值设计/模块层/技能模版列表.xlsx
+++ b/trunk/doc/数值设计/模块层/技能模版列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>火计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标格+周围4格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +130,18 @@
   </si>
   <si>
     <t>目标格+同面向后面一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +194,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,13 +217,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1704975</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2371642</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>590496</xdr:rowOff>
@@ -251,13 +255,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1619250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2504964</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>723817</xdr:rowOff>
@@ -289,13 +293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1714500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2381167</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>600021</xdr:rowOff>
@@ -327,13 +331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2543064</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>723817</xdr:rowOff>
@@ -365,13 +369,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2628900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3314614</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>533339</xdr:rowOff>
@@ -403,13 +407,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2724150</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3409864</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>600014</xdr:rowOff>
@@ -441,13 +445,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1733550</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2314502</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>657164</xdr:rowOff>
@@ -479,13 +483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2457367</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>609546</xdr:rowOff>
@@ -517,13 +521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2800350</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3486064</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>609539</xdr:rowOff>
@@ -555,13 +559,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1866900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2447852</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>590489</xdr:rowOff>
@@ -593,13 +597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2685939</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>685717</xdr:rowOff>
@@ -631,13 +635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2524052</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>561914</xdr:rowOff>
@@ -669,13 +673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2495467</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>580971</xdr:rowOff>
@@ -707,13 +711,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2838450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3524164</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>580964</xdr:rowOff>
@@ -745,13 +749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1847850</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2514517</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>571446</xdr:rowOff>
@@ -783,13 +787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3543214</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>571439</xdr:rowOff>
@@ -821,13 +825,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2762143</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>780957</xdr:rowOff>
@@ -859,13 +863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1771650</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2657364</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>714292</xdr:rowOff>
@@ -1185,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1196,30 +1200,33 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,17 +1236,20 @@
       <c r="C2" s="1">
         <v>50</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1249,15 +1259,18 @@
       <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1267,15 +1280,18 @@
       <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1285,15 +1301,18 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1303,15 +1322,18 @@
       <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1321,15 +1343,18 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1339,15 +1364,18 @@
       <c r="C8" s="1">
         <v>100</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,15 +1385,18 @@
       <c r="C9" s="1">
         <v>150</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1375,15 +1406,18 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1393,15 +1427,18 @@
       <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1411,15 +1448,18 @@
       <c r="C12" s="1">
         <v>80</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,15 +1469,18 @@
       <c r="C13" s="1">
         <v>120</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,15 +1490,18 @@
       <c r="C14" s="1">
         <v>100</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,17 +1511,20 @@
       <c r="C15" s="1">
         <v>200</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+      <c r="D15" s="4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="F2:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
